--- a/pred_ohlcv/54_21/2020-01-12 TRV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 TRV ohlcv.xlsx
@@ -730,7 +730,7 @@
         <v>-781543.2395177487</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-918648.8904332117</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-944083.3260332117</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-904705.5060332117</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-904705.5060332117</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1000046.028933212</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-993952.9893332117</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1003626.226933212</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-1003239.634133212</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-1058362.559433212</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1136779.632333212</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-1123474.102766709</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-1423445.530166709</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-2077015.224766709</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-2077015.224766709</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-2190178.213266709</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-2175574.815266709</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-2289263.24086671</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-2749259.901462486</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-2749304.901462486</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-2744453.716662486</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-2744498.716662486</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-2660615.377562486</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-2660615.377562486</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-2660615.377562486</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-12 TRV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 TRV ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-641295.7815177487</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-918648.8904332117</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-904341.0322332117</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-904705.5060332117</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-904705.5060332117</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1000046.028933212</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1000046.028933212</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-993952.9893332117</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1003626.226933212</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-1003239.634133212</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-1058362.559433212</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1136779.632333212</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-1123474.102766709</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-1423445.530166709</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-2077015.224766709</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-2077015.224766709</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-2190178.213266709</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-2175574.815266709</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-2289263.24086671</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-2683472.651262486</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-2731668.458962486</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-2731668.458962486</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-2749259.901462486</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-2749259.901462486</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-2749259.901462486</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-2749304.901462486</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-2660615.377562486</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-2660615.377562486</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-2660615.377562486</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
